--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="12000" windowHeight="3375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +32,18 @@
   </si>
   <si>
     <t>jetty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tom2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jetty2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,36 +388,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
